--- a/biology/Botanique/Parc_national_de_Kampinos/Parc_national_de_Kampinos.xlsx
+++ b/biology/Botanique/Parc_national_de_Kampinos/Parc_national_de_Kampinos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel national Kampinos (ou « Parc national Kampinoski », ou « parc national de Kampinos ») ou « parc de la forêt de Kampinos » ;  Kampinoski Park Narodowy en polonais), est deuxième le plus vaste des 23 parcs nationaux de Pologne, couvrant environ 38 500 hectares.  Il couvre l'ancienne forêt de Kampinos (Puszcza Kampinoska). Il est situé dans l'est du centre de la Pologne, dans la voïvodie de Mazovie, à 14 km au nord-ouest du centre-ville de Varsovie. Il est jumelé avec le parc national des Indiana Dunes, aux États-Unis.
 Le symbole du parc est l'élan qui y a été réintroduit en 1951 après avoir été dans cette région exterminé par la chasse au XVIIIe siècle. Cette espèce a failli disparaître de Pologne ; il n'en restait que quelques exemplaires à la fin de la Seconde Guerre mondiale, dans des zones humides très isolées.
@@ -512,7 +524,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc, au centre-est du pays, est limité à l'est par la capitale Varsovie et sa périurbanisation (trois millions d'habitants dans la conurbation), ainsi que par la Vistule, et au sud par l'autoroute Berlin-Moscou. À l'ouest, il est limité par une vaste zone d'agriculture, de plus en plus intensive.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de créer un parc dans cette région est apparue vers 1920. Dans les années 1930 les premières réserves forestières ont été formées (Granica, Sieraków et Zamczysko). Aujourd'hui, ces réserves se sont beaucoup étendues, et sont strictement protégées.
 Le parc lui-même n'a officiellement été créé qu'en 1959, sur une superficie totale de 407 kilomètres carrés.
@@ -576,7 +592,9 @@
           <t>Paysage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est varié, essentiellement constitué d'alternances de dunes, de zones sableuses alluviales alternant avec des sols marécageux où poussent des pins (sur sables et marais). La forêt et les bois couvrent 75 % environ du parc. Le pin y est l'essence la plus commune. 15 % du territoire est agricole et 10 % sont des landes et marais tourbeux ou paratourbeux. 
 12 % de la superficie sont protégés de façon stricte (Réserve Naturelle).
@@ -608,7 +626,9 @@
           <t>Richesses écologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont liées au fait que le Kampinos est riche en zones humides, car situé à la jonction des plus grands fleuves de Pologne entre les vallées de la Vistule, le Bug, Narew, Wkra et Bzura. Il n'existe pas de lac dans le parc qui est en quelque sorte drainé par le plus grand fleuve du Parc ; la Łasica (affluent de la Bzura).
 La biodiversité floristique du parc est très élevée, avec près de 1245 espèces de plantes répertoriées (dont 69 sont protégées). 
@@ -646,7 +666,9 @@
           <t>Patrimoine historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone du parc est également riche historiquement, de nombreux événements importants liés à l'histoire de la Pologne s'y étant déroulés. 
 Les témoignages du passé sont nombreux, comprenant les tombes des insurgés du soulèvement contre l'occupation russe (1863), les cimetières de la guerre polono-allemande de 1939 et les tombeaux des résistants de la seconde Guerre mondiale (1944-45). Au cimetière Palmiry reposent de nombreux habitants de Varsovie, secrètement tués là par les Allemands dans les années 1939-1945. À Żelazowa Wola se trouve la maison où est né le compositeur Frédéric Chopin.
@@ -678,7 +700,9 @@
           <t>Tourisme, menaces et état écologique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc et ses environs accueillent les touristes : marche, vélo et ski, avec possibles locations de chevaux, randonnée guidées sur un réseau de 360 kilomètres de sentiers et 200 km d'itinéraires cyclables dans le parc.
 Le parc abrite une grande variété de milieux dunaires et de zones humides plus ou moins enforestées de grande qualité en termes de naturalité, mais il est peu à peu devenu un isolat écologique (entouré par des routes, une agriculture intensive ou la ville). 
@@ -713,6 +737,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
